--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="T-shirts" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Código</t>
   </si>
@@ -48,9 +48,6 @@
     <t>09</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Nike Crew</t>
   </si>
   <si>
-    <t>Dc Camo Boxing</t>
-  </si>
-  <si>
     <t>T-shirts</t>
   </si>
   <si>
@@ -120,12 +114,6 @@
     <t>Champion Athletic</t>
   </si>
   <si>
-    <t>Champion Train</t>
-  </si>
-  <si>
-    <t>Campion Authentic</t>
-  </si>
-  <si>
     <t>Nike Club</t>
   </si>
   <si>
@@ -144,13 +132,10 @@
     <t>SikSilk Tech</t>
   </si>
   <si>
-    <t>SikSilk Zonal</t>
-  </si>
-  <si>
-    <t>Adidas Performance</t>
-  </si>
-  <si>
     <t>Champion American</t>
+  </si>
+  <si>
+    <t>Kappa Iieandro</t>
   </si>
 </sst>
 </file>
@@ -213,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +236,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -262,7 +250,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -360,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Código" dataDxfId="12"/>
     <tableColumn id="2" name="T-shirts" dataDxfId="11"/>
@@ -372,8 +360,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Código" dataDxfId="7"/>
     <tableColumn id="2" name="Sweats" dataDxfId="6"/>
@@ -384,8 +372,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:C11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Código" dataDxfId="2"/>
     <tableColumn id="2" name="Calças" dataDxfId="1"/>
@@ -682,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -711,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9">
         <v>13</v>
@@ -722,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10">
         <v>19.899999999999999</v>
@@ -733,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9">
         <v>19.899999999999999</v>
@@ -744,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10">
         <v>19.899999999999999</v>
@@ -755,7 +743,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9">
         <v>19.899999999999999</v>
@@ -766,7 +754,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9">
         <v>19.899999999999999</v>
@@ -777,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9">
         <v>20</v>
@@ -788,7 +776,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="9">
         <v>22.4</v>
@@ -799,28 +787,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="9">
-        <v>24.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A11" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A10" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -830,10 +807,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5">
         <v>19.899999999999999</v>
@@ -872,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6">
         <v>34.4</v>
@@ -883,7 +860,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5">
         <v>39.950000000000003</v>
@@ -894,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>49.9</v>
@@ -905,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="5">
         <v>54.9</v>
@@ -916,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5">
         <v>54.9</v>
@@ -927,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>58.9</v>
@@ -938,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>59.95</v>
@@ -949,21 +926,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5">
-        <v>63.9</v>
       </c>
     </row>
   </sheetData>
@@ -977,10 +943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,84 +961,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>33.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="6">
-        <v>33.9</v>
+      <c r="B3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="5">
+        <v>34.9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
-        <v>34.9</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="6">
-        <v>35</v>
+      <c r="B5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5">
+        <v>39.9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="C6" s="5">
-        <v>39.9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>38</v>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="C7" s="5">
-        <v>40</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>39</v>
+      <c r="B8" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="5">
         <v>49.9</v>
@@ -1082,8 +1048,8 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>40</v>
+      <c r="B9" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="C9" s="5">
         <v>49.9</v>
@@ -1093,21 +1059,10 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>41</v>
+      <c r="B10" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="C10" s="5">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5">
         <v>54.9</v>
       </c>
     </row>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Código</t>
   </si>
@@ -108,34 +108,7 @@
     <t>Dickies Philomont</t>
   </si>
   <si>
-    <t>Calças</t>
-  </si>
-  <si>
-    <t>Champion Athletic</t>
-  </si>
-  <si>
-    <t>Nike Club</t>
-  </si>
-  <si>
-    <t>Champion E.VO Street</t>
-  </si>
-  <si>
-    <t>Nike Sportswear</t>
-  </si>
-  <si>
-    <t>Adidas Trefoil</t>
-  </si>
-  <si>
-    <t>Ellesse Orvati</t>
-  </si>
-  <si>
-    <t>SikSilk Tech</t>
-  </si>
-  <si>
     <t>Champion American</t>
-  </si>
-  <si>
-    <t>Kappa Iieandro</t>
   </si>
 </sst>
 </file>
@@ -146,7 +119,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +143,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,20 +218,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="10">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -277,6 +256,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -306,37 +286,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -348,35 +297,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Código" dataDxfId="12"/>
-    <tableColumn id="2" name="T-shirts" dataDxfId="11"/>
-    <tableColumn id="4" name="Preço" dataDxfId="10"/>
+    <tableColumn id="1" name="Código" dataDxfId="7"/>
+    <tableColumn id="2" name="T-shirts" dataDxfId="6"/>
+    <tableColumn id="4" name="Preço" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:C10"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Código" dataDxfId="7"/>
-    <tableColumn id="2" name="Sweats" dataDxfId="6"/>
-    <tableColumn id="3" name="Preço" dataDxfId="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela134" displayName="Tabela134" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:C10"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Código" dataDxfId="2"/>
-    <tableColumn id="2" name="Calças" dataDxfId="1"/>
+    <tableColumn id="2" name="Sweats" dataDxfId="1"/>
     <tableColumn id="3" name="Preço" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -838,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5">
         <v>19.899999999999999</v>
@@ -943,133 +880,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5">
-        <v>33.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="5">
-        <v>39.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="5">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="5">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5">
-        <v>54.9</v>
-      </c>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -747,7 +747,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +883,7 @@
   <dimension ref="A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/Produtos.xlsx
+++ b/db/Produtos.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23516"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaod\PycharmProjects\BazarDesportivo1\db\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5FF7C15-E128-4FB3-B1FD-4A7E78DE8D5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18195" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="T-shirts" sheetId="1" r:id="rId1"/>
-    <sheet name="Sweats" sheetId="2" r:id="rId2"/>
-    <sheet name="Calças" sheetId="3" r:id="rId3"/>
+    <sheet name="Nike" sheetId="1" r:id="rId1"/>
+    <sheet name="Adidas" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Código</t>
   </si>
@@ -39,87 +44,59 @@
     <t>06</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>Preço</t>
   </si>
   <si>
-    <t>Sweats</t>
-  </si>
-  <si>
-    <t>Champion American Classics</t>
-  </si>
-  <si>
-    <t>Adidas Trefoil Warm-Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Coq Sportif </t>
-  </si>
-  <si>
-    <t>Ellesse Muro</t>
-  </si>
-  <si>
-    <t>Alpha Basic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ellesse Diveria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dickies Harrison </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solid Axel </t>
-  </si>
-  <si>
-    <t>Nike Crew</t>
-  </si>
-  <si>
-    <t>T-shirts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kappa Caffers Slim </t>
-  </si>
-  <si>
-    <t>Champion Authentic</t>
-  </si>
-  <si>
-    <t>Dickies Horseshoe</t>
-  </si>
-  <si>
-    <t>Dickies Stockdale</t>
-  </si>
-  <si>
-    <t>Levis Housemark</t>
-  </si>
-  <si>
-    <t>Nike Sportswear Club</t>
-  </si>
-  <si>
-    <t>Element Basic Pocket Label</t>
-  </si>
-  <si>
-    <t>Dickies Philomont</t>
-  </si>
-  <si>
-    <t>Champion American</t>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Nike Air Max 90</t>
+  </si>
+  <si>
+    <t>Nike Air Force 1 07</t>
+  </si>
+  <si>
+    <t>Nike Air Max 200</t>
+  </si>
+  <si>
+    <t>Nike Air Max 97</t>
+  </si>
+  <si>
+    <t>Nike React Element 55 SE</t>
+  </si>
+  <si>
+    <t>Nike Jordan React Elevation</t>
+  </si>
+  <si>
+    <t>Nike</t>
+  </si>
+  <si>
+    <t>Adidas UltraBoost 20M</t>
+  </si>
+  <si>
+    <t>Adidas Nite Jogger</t>
+  </si>
+  <si>
+    <t>Adidas Stan Smith</t>
+  </si>
+  <si>
+    <t>Adidas Superstar Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adidas Continental 80 </t>
+  </si>
+  <si>
+    <t>Adidas Forest Grove</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,13 +117,6 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,11 +145,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,15 +157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -218,14 +178,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-816]_-;\-* #,##0.00\ [$€-816]_-;_-* &quot;-&quot;??\ [$€-816]_-;_-@_-"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -292,31 +252,34 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C10" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:C7" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:C7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Código" dataDxfId="7"/>
-    <tableColumn id="2" name="T-shirts" dataDxfId="6"/>
-    <tableColumn id="4" name="Preço" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nike" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Preço" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:C10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8D9B7029-16B1-48FB-AF68-FBA8E89A36E4}" name="Tabela13" displayName="Tabela13" ref="A1:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C7" xr:uid="{07503548-CCB1-49DE-BD4B-DC6660FAE7C4}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Código" dataDxfId="2"/>
-    <tableColumn id="2" name="Sweats" dataDxfId="1"/>
-    <tableColumn id="3" name="Preço" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{54D3BF0B-5AF6-49E7-B81F-24EFE99DCFCB}" name="Código" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4C17CCA7-5A0B-46C4-867A-C81D47A70D8E}" name="Adidas" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A774FAA2-CC82-44D0-9797-A66CC15F59CB}" name="Preço" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -363,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,9 +359,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +411,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,267 +603,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6">
+        <v>139.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="9">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9">
-        <v>22.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="9">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A10" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="6">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5">
-        <v>39.950000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6">
-        <v>49.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5">
-        <v>59.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5">
-        <v>60</v>
+      <c r="C7" s="6">
+        <v>119.9</v>
       </c>
     </row>
   </sheetData>
@@ -878,21 +703,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5872D2D0-48EB-41A6-85D1-307460C1B381}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>179.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="6">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>